--- a/content/posts/0008/static/allphp-1ocpu.xlsx
+++ b/content/posts/0008/static/allphp-1ocpu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrico.pesce/Documents/source/blog/content/posts/0008/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F96182-7632-8247-9914-92D990DD7074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33882C-905B-104C-B068-4C03AF1CD1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="51200" windowHeight="27440" activeTab="1" xr2:uid="{B1213A3B-FC70-D64D-A073-93226F076A9F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27440" activeTab="1" xr2:uid="{B1213A3B-FC70-D64D-A073-93226F076A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,6 @@
   <definedNames>
     <definedName name="__vmoptimized3flex" localSheetId="1">'PHP 8.0'!$A$1:$C$18</definedName>
     <definedName name="__vmoptimized3flex" localSheetId="0">results!$A$1:$E$18</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'PHP 8.0'!$A$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'PHP 8.0'!$A$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'PHP 8.0'!$B$15:$F$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'PHP 8.0'!$B$17:$F$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'PHP 8.0'!$B$18:$F$18</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'PHP 8.0'!$A$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'PHP 8.0'!$A$18</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'PHP 8.0'!$B$15:$F$16</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'PHP 8.0'!$B$17:$F$17</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'PHP 8.0'!$B$18:$F$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -305,7 +295,34 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -317,19 +334,42 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PHP 8.0'!$A$17</c:f>
+              <c:f>'PHP 8.0'!$A$17:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PHP Micro Benchmarks - Test: Zend bench (sec)</c:v>
+                  <c:v>PHP Micro Benchmarks - Test: Zend bench (sec) PHP Micro Benchmarks - Test: Zend micro_bench (sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -338,32 +378,22 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -382,16 +412,20 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="wedgeRectCallout">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -473,9 +507,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -484,32 +541,22 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -528,16 +575,20 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="wedgeRectCallout">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -612,7 +663,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="75"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
         <c:axId val="1974537631"/>
         <c:axId val="1974539279"/>
       </c:barChart>
@@ -631,7 +683,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -645,12 +697,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -665,6 +714,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -672,39 +722,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-ES"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1974537631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -718,7 +741,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -732,12 +755,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -758,7 +778,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -826,33 +846,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -867,7 +881,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -875,7 +889,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -883,17 +897,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -902,9 +913,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -927,35 +937,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -964,33 +974,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1006,21 +1015,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1030,23 +1034,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1055,17 +1058,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1074,14 +1077,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1093,26 +1096,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1126,17 +1123,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1145,17 +1141,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1164,17 +1160,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1183,27 +1178,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1211,11 +1203,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1223,17 +1223,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1242,12 +1242,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1256,14 +1253,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1272,10 +1269,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1284,20 +1278,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1306,10 +1299,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1318,14 +1308,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2871,7 +2855,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
